--- a/PEG 600DO-IK/PEGav.xlsx
+++ b/PEG 600DO-IK/PEGav.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -33,12 +33,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,13 +61,38 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.3999755851924192"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -132,6 +163,26 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K15" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K15"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="LOT"/>
+    <tableColumn id="2" name="Step"/>
+    <tableColumn id="3" name="Waktu"/>
+    <tableColumn id="4" name="Operator QC"/>
+    <tableColumn id="5" name="Reaksi (°C)"/>
+    <tableColumn id="6" name="Berat Sample (gr)"/>
+    <tableColumn id="7" name="Jumlah Titran (mL)"/>
+    <tableColumn id="8" name="Faktor Buret"/>
+    <tableColumn id="9" name="Faktor NaOH"/>
+    <tableColumn id="10" name="AV"/>
+    <tableColumn id="11" name="Instruksi"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,30 +447,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
+    <col width="9" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="15.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.453125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.7265625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="15.36328125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.453125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="11.36328125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="11.6328125" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="16.1796875" customWidth="1" min="11" max="11"/>
+    <col width="16" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="14.26953125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="19.90625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="15.90625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="7.81640625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col hidden="1" width="28.90625" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>LOT</t>
@@ -912,6 +966,276 @@
         <v>5.61</v>
       </c>
       <c r="K10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A121212P</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>04/06/2023 08:57</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yusril</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.6522</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>lakukan pemanasan hingga 225°C</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A121212P</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>04/06/2023 08:57</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yusril</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J12" t="n">
+        <v>56.5215</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Tambah waktu pemanasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A121212P</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>04/06/2023 08:57</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yusril</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.478199999999999</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Tambah waktu pemanasan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A121212P</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>04/06/2023 08:58</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yusril</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.9565</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Lakukan cooling hingga 120°C</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A121212P</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>04/06/2023 08:58</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Yusril</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.0045</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.7681</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Packing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>04/11/2023 14:08</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>qr</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Packing</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.1638</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -920,5 +1244,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>